--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D911D-A640-4CCC-9496-B76F5F7325C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B31A4D-0923-47BC-873C-DACF09A052E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -757,97 +757,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>5.5543662272504674E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.024633753784608E-2</c:v>
+                  <c:v>0.11329662852394576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5284471637220293E-2</c:v>
+                  <c:v>0.11785627516066977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2003630361246593E-2</c:v>
+                  <c:v>0.12393729421917929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0927980087527578E-2</c:v>
+                  <c:v>0.13201407034537258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2716818736541909E-2</c:v>
+                  <c:v>0.14268328585981011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8177945202147386E-2</c:v>
+                  <c:v>0.15667602045129686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8265091104737653E-2</c:v>
+                  <c:v>0.17485542684453015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11404522372371409</c:v>
+                  <c:v>0.19818713907605162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14661753836355551</c:v>
+                  <c:v>0.22766595841043905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18696663186518833</c:v>
+                  <c:v>0.26418297142572073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23574388460325429</c:v>
+                  <c:v>0.30832769485088418</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29299937128165693</c:v>
+                  <c:v>0.36014544763749645</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3579299053559164</c:v>
+                  <c:v>0.41890932439678408</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.42874814730321642</c:v>
+                  <c:v>0.48300173486950693</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50277718311362518</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57680621892403405</c:v>
+                  <c:v>0.61699826513049316</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64762446087133407</c:v>
+                  <c:v>0.6810906756032159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71255499494559349</c:v>
+                  <c:v>0.73985455236250353</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76981048162399612</c:v>
+                  <c:v>0.7916723051491158</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.81858773436206211</c:v>
+                  <c:v>0.8358170285742792</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.85893682786369507</c:v>
+                  <c:v>0.87233404158956107</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.89150914250353641</c:v>
+                  <c:v>0.90181286092394841</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9172892751225129</c:v>
+                  <c:v>0.92514457315546994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9373764210251031</c:v>
+                  <c:v>0.94332397954870317</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9528375474907087</c:v>
+                  <c:v>0.95731671414018993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96462638613972296</c:v>
+                  <c:v>0.96798592965462749</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97355073586600382</c:v>
+                  <c:v>0.97606270578082066</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98026989459003022</c:v>
+                  <c:v>0.98214372483933032</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98530802868940437</c:v>
+                  <c:v>0.98670337147605425</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.98907408287249499</c:v>
+                  <c:v>0.99011175163246612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,23 +1942,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="56.28515625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.1796875" style="13"/>
+    <col min="2" max="2" width="56.26953125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1966,339 +1966,339 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="16"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="13" t="s">
         <v>45</v>
       </c>
@@ -2321,13 +2321,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -3373,13 +3373,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0.76226911968156119</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.48773088031843881</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -4425,13 +4425,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0.50990675990675993</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>0.74009324009324007</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -5477,13 +5477,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -6529,13 +6529,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>1.8381271689900589E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>7.3525086759602368E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -7583,13 +7583,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -7976,136 +7976,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>Data!H82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="13">
         <f>Data!I82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="13">
         <f>Data!J82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="13">
         <f>Data!K82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="13">
         <f>Data!L82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="13">
         <f>Data!M82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="13">
         <f>Data!N82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="13">
         <f>Data!O82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="13">
         <f>Data!P82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="13">
         <f>Data!Q82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="13">
         <f>Data!R82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="13">
         <f>Data!S82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="13">
         <f>Data!T82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="13">
         <f>Data!U82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="13">
         <f>Data!V82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="13">
         <f>Data!W82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="13">
         <f>Data!X82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="13">
         <f>Data!Y82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="13">
         <f>Data!Z82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="13">
         <f>Data!AA82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="13">
         <f>Data!AB82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="13">
         <f>Data!AC82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="13">
         <f>Data!AD82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="13">
         <f>Data!AE82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="13">
         <f>Data!AF82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="13">
         <f>Data!AG82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="13">
         <f>Data!AH82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="13">
         <f>Data!AI82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="13">
         <f>Data!AJ82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="13">
         <f>Data!AK82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="13">
         <f>Data!AL82</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -8637,13 +8637,13 @@
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -9030,136 +9030,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>Data!H89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="13">
         <f>Data!I89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="13">
         <f>Data!J89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="13">
         <f>Data!K89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="13">
         <f>Data!L89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="13">
         <f>Data!M89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="13">
         <f>Data!N89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="13">
         <f>Data!O89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="13">
         <f>Data!P89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="13">
         <f>Data!Q89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="13">
         <f>Data!R89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="13">
         <f>Data!S89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="13">
         <f>Data!T89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="13">
         <f>Data!U89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="13">
         <f>Data!V89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="13">
         <f>Data!W89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="13">
         <f>Data!X89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="13">
         <f>Data!Y89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="13">
         <f>Data!Z89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="13">
         <f>Data!AA89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="13">
         <f>Data!AB89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="13">
         <f>Data!AC89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="13">
         <f>Data!AD89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="13">
         <f>Data!AE89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="13">
         <f>Data!AF89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="13">
         <f>Data!AG89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="13">
         <f>Data!AH89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="13">
         <f>Data!AI89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="13">
         <f>Data!AJ89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="13">
         <f>Data!AK89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="13">
         <f>Data!AL89</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -9688,18 +9688,18 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -9884,11 +9884,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -9910,19 +9910,19 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -9976,7 +9976,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -10128,24 +10128,24 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="13" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
-    <col min="8" max="9" width="9.140625" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="7" max="7" width="9.1796875" style="13"/>
+    <col min="8" max="9" width="9.1796875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>66</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>68</v>
       </c>
@@ -10215,12 +10215,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -10234,7 +10234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -10262,7 +10262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -10415,8 +10415,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="38">
-        <f>1.25*INDEX('SYVbT-passenger'!$B$2:$H$2,MATCH(Data!$C10,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$2:$H$2)</f>
-        <v>5.5543662272504674E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -10427,130 +10426,130 @@
       </c>
       <c r="H10" s="24">
         <f t="shared" ref="H10:H40" si="1">D10</f>
-        <v>5.5543662272504674E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>2.024633753784608E-2</v>
+        <v>0.11329662852394576</v>
       </c>
       <c r="J10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>2.5284471637220293E-2</v>
+        <v>0.11785627516066977</v>
       </c>
       <c r="K10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>3.2003630361246593E-2</v>
+        <v>0.12393729421917929</v>
       </c>
       <c r="L10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>4.0927980087527578E-2</v>
+        <v>0.13201407034537258</v>
       </c>
       <c r="M10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
-        <v>5.2716818736541909E-2</v>
+        <v>0.14268328585981011</v>
       </c>
       <c r="N10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>6.8177945202147386E-2</v>
+        <v>0.15667602045129686</v>
       </c>
       <c r="O10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>8.8265091104737653E-2</v>
+        <v>0.17485542684453015</v>
       </c>
       <c r="P10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.11404522372371409</v>
+        <v>0.19818713907605162</v>
       </c>
       <c r="Q10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.14661753836355551</v>
+        <v>0.22766595841043905</v>
       </c>
       <c r="R10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.18696663186518833</v>
+        <v>0.26418297142572073</v>
       </c>
       <c r="S10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.23574388460325429</v>
+        <v>0.30832769485088418</v>
       </c>
       <c r="T10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.29299937128165693</v>
+        <v>0.36014544763749645</v>
       </c>
       <c r="U10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.3579299053559164</v>
+        <v>0.41890932439678408</v>
       </c>
       <c r="V10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.42874814730321642</v>
+        <v>0.48300173486950693</v>
       </c>
       <c r="W10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.50277718311362518</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.57680621892403405</v>
+        <v>0.61699826513049316</v>
       </c>
       <c r="Y10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.64762446087133407</v>
+        <v>0.6810906756032159</v>
       </c>
       <c r="Z10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.71255499494559349</v>
+        <v>0.73985455236250353</v>
       </c>
       <c r="AA10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.76981048162399612</v>
+        <v>0.7916723051491158</v>
       </c>
       <c r="AB10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.81858773436206211</v>
+        <v>0.8358170285742792</v>
       </c>
       <c r="AC10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.85893682786369507</v>
+        <v>0.87233404158956107</v>
       </c>
       <c r="AD10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.89150914250353641</v>
+        <v>0.90181286092394841</v>
       </c>
       <c r="AE10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.9172892751225129</v>
+        <v>0.92514457315546994</v>
       </c>
       <c r="AF10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.9373764210251031</v>
+        <v>0.94332397954870317</v>
       </c>
       <c r="AG10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.9528375474907087</v>
+        <v>0.95731671414018993</v>
       </c>
       <c r="AH10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.96462638613972296</v>
+        <v>0.96798592965462749</v>
       </c>
       <c r="AI10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.97355073586600382</v>
+        <v>0.97606270578082066</v>
       </c>
       <c r="AJ10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.98026989459003022</v>
+        <v>0.98214372483933032</v>
       </c>
       <c r="AK10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.98530802868940437</v>
+        <v>0.98670337147605425</v>
       </c>
       <c r="AL10" s="13">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.98907408287249499</v>
+        <v>0.99011175163246612</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
@@ -10691,17 +10690,17 @@
         <v>2.3114509385886379E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="39">
-        <f>1.25*INDEX('SYVbT-passenger'!$B$2:$H$2,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$2:$H$2)</f>
-        <v>0.68515636335090058</v>
+        <f>1.25*INDEX('SYVbT-passenger'!$B$2:$H$2,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$2:$H$2)*3</f>
+        <v>2.0554690900527017</v>
       </c>
       <c r="E12" s="24">
         <f>D12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>IF(D12=E12,"n/a",IF(OR(C12="battery electric vehicle",C12="natural gas vehicle",C12="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -10709,140 +10708,140 @@
       </c>
       <c r="H12" s="24">
         <f t="shared" si="1"/>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="I12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,I$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="J12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,J$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="K12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,K$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="L12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,L$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="M12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,M$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="N12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,N$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="O12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,O$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="P12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,P$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="Q12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,Q$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="R12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,R$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="S12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,S$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="T12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,T$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="U12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,U$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="V12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,V$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="W12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,W$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="X12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,X$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="Y12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,Y$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="Z12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,Z$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AA12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AA$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AB12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AB$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AC12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AC$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AD12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AD$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AE12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AE$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AF12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AF$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AG12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AG$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AH12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AH$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AI12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AI$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AJ12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AJ$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AK12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AK$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AL12" s="13">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AL$9))</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="39">
-        <f>1.25*INDEX('SYVbT-passenger'!$B$2:$H$2,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$2:$H$2)</f>
-        <v>0.40715624709934345</v>
+        <f>1.25*INDEX('SYVbT-passenger'!$B$2:$H$2,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$2:$H$2)*3</f>
+        <v>1.2214687412980303</v>
       </c>
       <c r="E13" s="24">
         <f t="shared" ref="E13:E15" si="2">D13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>IF(D13=E13,"n/a",IF(OR(C13="battery electric vehicle",C13="natural gas vehicle",C13="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -10850,130 +10849,130 @@
       </c>
       <c r="H13" s="24">
         <f t="shared" si="1"/>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="I13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,I$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="J13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,J$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="K13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,K$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="L13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,L$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="M13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,M$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="N13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,N$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="O13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,O$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="P13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,P$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="Q13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,Q$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="R13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,R$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="S13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,S$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="T13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,T$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="U13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,U$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="V13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,V$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="W13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,W$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="X13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,X$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="Y13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,Y$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="Z13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,Z$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AA13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AA$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AB13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AB$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AC13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AC$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AD13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AD$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AE13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AE$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AF13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AF$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AG13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AG$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AH13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AH$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AI13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AI$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AJ13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AJ$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AK13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AK$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AL13" s="13">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AL$9))</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>3.1669224668199936E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C15" s="13" t="s">
         <v>78</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>0.11783424550586601</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
@@ -11398,7 +11397,7 @@
         <v>2.2895501304632314E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>0.98901751194548926</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
@@ -11685,17 +11684,17 @@
         <v>5.4356707810170545E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="24">
-        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$2:$H$2,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$2:$H$2),1)</f>
-        <v>4.3780152499952856E-3</v>
+        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$2:$H$2,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$2:$H$2),1)*3</f>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="E19" s="24">
         <f t="shared" ref="E19:E22" si="3">D19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="F19" s="7" t="str">
         <f>IF(D19=E19,"n/a",IF(OR(C19="battery electric vehicle",C19="natural gas vehicle",C19="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -11703,140 +11702,139 @@
       </c>
       <c r="H19" s="24">
         <f t="shared" si="1"/>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="I19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,I$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="J19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,J$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="K19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,K$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="L19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,L$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="M19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,M$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="N19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,N$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="O19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,O$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="P19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,P$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="Q19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,Q$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="R19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,R$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="S19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,S$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="T19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,T$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="U19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,U$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="V19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,V$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="W19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,W$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="X19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,X$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="Y19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,Y$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="Z19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,Z$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AA19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AA$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AB19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AB$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AC19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AC$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AD19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AD$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AE19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AE$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AF19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AF$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AG19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AG$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AH19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AH$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AI19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AI$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AJ19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AJ$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AK19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AK$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AL19" s="13">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D19:$E19,$D$9:$E$9,AL$9))</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="24">
-        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$2:$H$2,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$2:$H$2),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="7" t="str">
         <f>IF(D20=E20,"n/a",IF(OR(C20="battery electric vehicle",C20="natural gas vehicle",C20="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -11844,130 +11842,130 @@
       </c>
       <c r="H20" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL20" s="13">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D20:$E20,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" s="13" t="s">
         <v>5</v>
       </c>
@@ -12108,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C22" s="13" t="s">
         <v>78</v>
       </c>
@@ -12249,7 +12247,7 @@
         <v>4.243912626775604E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
@@ -12392,7 +12390,7 @@
         <v>5.3759493779872286E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>13</v>
       </c>
@@ -12538,7 +12536,7 @@
         <v>0.79127177805208992</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" s="13" t="s">
         <v>2</v>
       </c>
@@ -12679,17 +12677,17 @@
         <v>2.3113990968226827E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="24">
-        <f>MIN(1.25*INDEX('SYVbT-passenger'!$B$3:$H$3,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$3:$H$3),1)</f>
-        <v>0.68514099650264149</v>
+        <f>MIN(1.25*INDEX('SYVbT-passenger'!$B$3:$H$3,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$3:$H$3),1)*3</f>
+        <v>2.0554229895079246</v>
       </c>
       <c r="E26" s="24">
         <f t="shared" ref="E26:E29" si="4">D26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="F26" s="7" t="str">
         <f>IF(D26=E26,"n/a",IF(OR(C26="battery electric vehicle",C26="natural gas vehicle",C26="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -12697,140 +12695,140 @@
       </c>
       <c r="H26" s="24">
         <f t="shared" si="1"/>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="I26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,I$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="J26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,J$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="K26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,K$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="L26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,L$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="M26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,M$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="N26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,N$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="O26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,O$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="P26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,P$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="Q26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,Q$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="R26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,R$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="S26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,S$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="T26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,T$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="U26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,U$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="V26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,V$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="W26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,W$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="X26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,X$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="Y26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,Y$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="Z26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,Z$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AA26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AA$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AB26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AB$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AC26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AC$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AD26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AD$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AE26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AE$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AF26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AF$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AG26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AG$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AH26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AH$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AI26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AI$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AJ26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AJ$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AK26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AK$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AL26" s="13">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D26:$E26,$D$9:$E$9,AL$9))</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="24">
-        <f>MIN(1.25*INDEX('SYVbT-passenger'!$B$3:$H$3,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$3:$H$3),1)</f>
-        <v>0.40714711530315562</v>
+        <f>MIN(1.25*INDEX('SYVbT-passenger'!$B$3:$H$3,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-passenger'!$B$3:$H$3),1)*3</f>
+        <v>1.2214413459094668</v>
       </c>
       <c r="E27" s="24">
         <f t="shared" si="4"/>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="F27" s="7" t="str">
         <f>IF(D27=E27,"n/a",IF(OR(C27="battery electric vehicle",C27="natural gas vehicle",C27="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -12838,130 +12836,130 @@
       </c>
       <c r="H27" s="24">
         <f t="shared" si="1"/>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="I27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,I$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="J27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,J$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="K27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,K$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="L27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,L$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="M27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,M$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="N27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,N$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="O27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,O$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="P27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,P$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="Q27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,Q$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="R27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,R$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="S27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,S$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="T27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,T$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="U27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,U$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="V27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,V$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="W27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,W$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="X27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,X$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="Y27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,Y$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="Z27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,Z$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AA27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AA$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AB27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AB$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AC27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AC$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AD27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AD$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AE27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AE$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AF27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AF$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AG27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AG$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AH27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AH$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AI27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AI$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AJ27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AJ$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AK27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AK$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AL27" s="13">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D27:$E27,$D$9:$E$9,AL$9))</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" s="13" t="s">
         <v>5</v>
       </c>
@@ -13102,7 +13100,7 @@
         <v>3.1668514383371552E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C29" s="13" t="s">
         <v>78</v>
       </c>
@@ -13243,7 +13241,7 @@
         <v>0.11783160269165999</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
@@ -13386,7 +13384,7 @@
         <v>2.2894987798937581E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>13</v>
       </c>
@@ -13533,7 +13531,7 @@
         <v>0.79121490240953929</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" s="13" t="s">
         <v>2</v>
       </c>
@@ -13674,17 +13672,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="24">
-        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$3:$H$3,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$3:$H$3),1)</f>
-        <v>4.3799198741939537E-3</v>
+        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$3:$H$3,MATCH(Data!$C12,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$3:$H$3),1)*3</f>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="E33" s="24">
         <f t="shared" ref="E33:E36" si="5">D33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="F33" s="7" t="str">
         <f>IF(D33=E33,"n/a",IF(OR(C33="battery electric vehicle",C33="natural gas vehicle",C33="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -13692,140 +13690,140 @@
       </c>
       <c r="H33" s="24">
         <f t="shared" si="1"/>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="I33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,I$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="J33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,J$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="K33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,K$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="L33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,L$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="M33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,M$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="N33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,N$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="O33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,O$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="P33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,P$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="Q33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,Q$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="R33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,R$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="S33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,S$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="T33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,T$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="U33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,U$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="V33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,V$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="W33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,W$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="X33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,X$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="Y33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,Y$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="Z33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,Z$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AA33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AA$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AB33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AB$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AC33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AC$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AD33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AD$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AE33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AE$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AF33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AF$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AG33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AG$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AH33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AH$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AI33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AI$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AJ33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AJ$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AK33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AK$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AL33" s="13">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D33:$E33,$D$9:$E$9,AL$9))</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="24">
-        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$3:$H$3,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$3:$H$3),1)</f>
-        <v>1</v>
+        <f>MIN(1.25*INDEX('SYVbT-freight'!$B$3:$H$3,MATCH(Data!$C13,'SYVbT-passenger'!$B$1:$H$1,0))/SUM('SYVbT-freight'!$B$3:$H$3),1)*3</f>
+        <v>3</v>
       </c>
       <c r="E34" s="24">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="7" t="str">
         <f>IF(D34=E34,"n/a",IF(OR(C34="battery electric vehicle",C34="natural gas vehicle",C34="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -13833,130 +13831,130 @@
       </c>
       <c r="H34" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL34" s="13">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D34:$E34,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>5</v>
       </c>
@@ -14097,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
         <v>78</v>
       </c>
@@ -14238,7 +14236,7 @@
         <v>4.2457589105878851E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26" t="s">
@@ -14381,7 +14379,7 @@
         <v>4.1991110010139263E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>14</v>
       </c>
@@ -14526,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" s="13" t="s">
         <v>2</v>
       </c>
@@ -14665,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C40" s="13" t="s">
         <v>3</v>
       </c>
@@ -14804,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
       <c r="C41" s="13" t="s">
         <v>4</v>
@@ -14944,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="25"/>
       <c r="C42" s="13" t="s">
         <v>5</v>
@@ -15084,7 +15082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
       <c r="C43" s="13" t="s">
         <v>78</v>
@@ -15224,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26" t="s">
@@ -15365,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>14</v>
       </c>
@@ -15510,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" s="13" t="s">
         <v>2</v>
       </c>
@@ -15649,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" s="13" t="s">
         <v>3</v>
       </c>
@@ -15788,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" s="13" t="s">
         <v>4</v>
       </c>
@@ -15927,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" s="13" t="s">
         <v>5</v>
       </c>
@@ -16066,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C50" s="13" t="s">
         <v>78</v>
       </c>
@@ -16205,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26" t="s">
@@ -16346,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>15</v>
       </c>
@@ -16493,7 +16491,7 @@
         <v>0.76226911968156119</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" s="13" t="s">
         <v>2</v>
       </c>
@@ -16634,7 +16632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" s="13" t="s">
         <v>3</v>
       </c>
@@ -16775,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C55" s="13" t="s">
         <v>4</v>
       </c>
@@ -16916,7 +16914,7 @@
         <v>0.48773088031843881</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
       <c r="C56" s="13" t="s">
         <v>5</v>
@@ -17058,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="25"/>
       <c r="C57" s="13" t="s">
         <v>78</v>
@@ -17200,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26" t="s">
@@ -17343,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>15</v>
       </c>
@@ -17490,7 +17488,7 @@
         <v>0.50990675990675993</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
       <c r="C60" s="13" t="s">
         <v>2</v>
@@ -17632,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="C61" s="13" t="s">
         <v>3</v>
@@ -17774,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" s="13" t="s">
         <v>4</v>
       </c>
@@ -17915,7 +17913,7 @@
         <v>0.74009324009324007</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" s="13" t="s">
         <v>5</v>
       </c>
@@ -18056,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C64" s="13" t="s">
         <v>78</v>
       </c>
@@ -18197,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26" t="s">
@@ -18340,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>16</v>
       </c>
@@ -18485,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" s="13" t="s">
         <v>2</v>
       </c>
@@ -18624,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" s="13" t="s">
         <v>3</v>
       </c>
@@ -18763,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" s="13" t="s">
         <v>4</v>
       </c>
@@ -18902,7 +18900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" s="13" t="s">
         <v>5</v>
       </c>
@@ -19041,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C71" s="13" t="s">
         <v>78</v>
       </c>
@@ -19180,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26" t="s">
@@ -19321,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>16</v>
       </c>
@@ -19468,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" s="13" t="s">
         <v>2</v>
       </c>
@@ -19609,7 +19607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" s="13" t="s">
         <v>3</v>
       </c>
@@ -19750,7 +19748,7 @@
         <v>1.8381271689900589E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" s="13" t="s">
         <v>4</v>
       </c>
@@ -19891,7 +19889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" s="13" t="s">
         <v>5</v>
       </c>
@@ -20032,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C78" s="13" t="s">
         <v>78</v>
       </c>
@@ -20173,7 +20171,7 @@
         <v>7.3525086759602368E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26" t="s">
@@ -20316,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>17</v>
       </c>
@@ -20461,7 +20459,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" s="13" t="s">
         <v>2</v>
       </c>
@@ -20601,15 +20599,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" s="7" t="str">
         <f>IF(D82=E82,"n/a",IF(OR(C82="battery electric vehicle",C82="natural gas vehicle",C82="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -20617,130 +20615,130 @@
       </c>
       <c r="H82" s="24">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL82" s="13">
         <f>IF($F82="s-curve",$D82+($E82-$D82)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D82:$E82,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" s="13" t="s">
         <v>4</v>
       </c>
@@ -20880,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" s="13" t="s">
         <v>5</v>
       </c>
@@ -21020,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C85" s="13" t="s">
         <v>78</v>
       </c>
@@ -21160,7 +21158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26" t="s">
@@ -21302,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>17</v>
       </c>
@@ -21449,7 +21447,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" s="13" t="s">
         <v>2</v>
       </c>
@@ -21590,17 +21588,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="24">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89" s="24">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" s="7" t="str">
         <f>IF(D89=E89,"n/a",IF(OR(C89="battery electric vehicle",C89="natural gas vehicle",C89="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -21608,130 +21606,130 @@
       </c>
       <c r="H89" s="24">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL89" s="13">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" s="13" t="s">
         <v>4</v>
       </c>
@@ -21872,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" s="13" t="s">
         <v>5</v>
       </c>
@@ -22013,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C92" s="13" t="s">
         <v>78</v>
       </c>
@@ -22154,7 +22152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="26" t="s">
@@ -22314,13 +22312,13 @@
       <selection activeCell="B6" sqref="B6:AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -22449,136 +22447,136 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!H10</f>
-        <v>5.5543662272504674E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <f>Data!I10</f>
-        <v>2.024633753784608E-2</v>
+        <v>0.11329662852394576</v>
       </c>
       <c r="D2">
         <f>Data!J10</f>
-        <v>2.5284471637220293E-2</v>
+        <v>0.11785627516066977</v>
       </c>
       <c r="E2">
         <f>Data!K10</f>
-        <v>3.2003630361246593E-2</v>
+        <v>0.12393729421917929</v>
       </c>
       <c r="F2">
         <f>Data!L10</f>
-        <v>4.0927980087527578E-2</v>
+        <v>0.13201407034537258</v>
       </c>
       <c r="G2">
         <f>Data!M10</f>
-        <v>5.2716818736541909E-2</v>
+        <v>0.14268328585981011</v>
       </c>
       <c r="H2">
         <f>Data!N10</f>
-        <v>6.8177945202147386E-2</v>
+        <v>0.15667602045129686</v>
       </c>
       <c r="I2">
         <f>Data!O10</f>
-        <v>8.8265091104737653E-2</v>
+        <v>0.17485542684453015</v>
       </c>
       <c r="J2">
         <f>Data!P10</f>
-        <v>0.11404522372371409</v>
+        <v>0.19818713907605162</v>
       </c>
       <c r="K2">
         <f>Data!Q10</f>
-        <v>0.14661753836355551</v>
+        <v>0.22766595841043905</v>
       </c>
       <c r="L2">
         <f>Data!R10</f>
-        <v>0.18696663186518833</v>
+        <v>0.26418297142572073</v>
       </c>
       <c r="M2">
         <f>Data!S10</f>
-        <v>0.23574388460325429</v>
+        <v>0.30832769485088418</v>
       </c>
       <c r="N2">
         <f>Data!T10</f>
-        <v>0.29299937128165693</v>
+        <v>0.36014544763749645</v>
       </c>
       <c r="O2">
         <f>Data!U10</f>
-        <v>0.3579299053559164</v>
+        <v>0.41890932439678408</v>
       </c>
       <c r="P2">
         <f>Data!V10</f>
-        <v>0.42874814730321642</v>
+        <v>0.48300173486950693</v>
       </c>
       <c r="Q2">
         <f>Data!W10</f>
-        <v>0.50277718311362518</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2">
         <f>Data!X10</f>
-        <v>0.57680621892403405</v>
+        <v>0.61699826513049316</v>
       </c>
       <c r="S2">
         <f>Data!Y10</f>
-        <v>0.64762446087133407</v>
+        <v>0.6810906756032159</v>
       </c>
       <c r="T2">
         <f>Data!Z10</f>
-        <v>0.71255499494559349</v>
+        <v>0.73985455236250353</v>
       </c>
       <c r="U2">
         <f>Data!AA10</f>
-        <v>0.76981048162399612</v>
+        <v>0.7916723051491158</v>
       </c>
       <c r="V2">
         <f>Data!AB10</f>
-        <v>0.81858773436206211</v>
+        <v>0.8358170285742792</v>
       </c>
       <c r="W2">
         <f>Data!AC10</f>
-        <v>0.85893682786369507</v>
+        <v>0.87233404158956107</v>
       </c>
       <c r="X2">
         <f>Data!AD10</f>
-        <v>0.89150914250353641</v>
+        <v>0.90181286092394841</v>
       </c>
       <c r="Y2">
         <f>Data!AE10</f>
-        <v>0.9172892751225129</v>
+        <v>0.92514457315546994</v>
       </c>
       <c r="Z2">
         <f>Data!AF10</f>
-        <v>0.9373764210251031</v>
+        <v>0.94332397954870317</v>
       </c>
       <c r="AA2">
         <f>Data!AG10</f>
-        <v>0.9528375474907087</v>
+        <v>0.95731671414018993</v>
       </c>
       <c r="AB2">
         <f>Data!AH10</f>
-        <v>0.96462638613972296</v>
+        <v>0.96798592965462749</v>
       </c>
       <c r="AC2">
         <f>Data!AI10</f>
-        <v>0.97355073586600382</v>
+        <v>0.97606270578082066</v>
       </c>
       <c r="AD2">
         <f>Data!AJ10</f>
-        <v>0.98026989459003022</v>
+        <v>0.98214372483933032</v>
       </c>
       <c r="AE2">
         <f>Data!AK10</f>
-        <v>0.98530802868940437</v>
+        <v>0.98670337147605425</v>
       </c>
       <c r="AF2">
         <f>Data!AL10</f>
-        <v>0.98907408287249499</v>
+        <v>0.99011175163246612</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -22707,265 +22705,265 @@
         <v>2.3114509385886379E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>Data!H12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="C4" s="13">
         <f>Data!I12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="D4" s="13">
         <f>Data!J12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="E4" s="13">
         <f>Data!K12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="F4" s="13">
         <f>Data!L12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="G4" s="13">
         <f>Data!M12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="H4" s="13">
         <f>Data!N12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="I4" s="13">
         <f>Data!O12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="J4" s="13">
         <f>Data!P12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="K4" s="13">
         <f>Data!Q12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="L4" s="13">
         <f>Data!R12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="M4" s="13">
         <f>Data!S12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="N4" s="13">
         <f>Data!T12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="O4" s="13">
         <f>Data!U12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="P4" s="13">
         <f>Data!V12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="Q4" s="13">
         <f>Data!W12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="R4" s="13">
         <f>Data!X12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="S4" s="13">
         <f>Data!Y12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="T4" s="13">
         <f>Data!Z12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="U4" s="13">
         <f>Data!AA12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="V4" s="13">
         <f>Data!AB12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="W4" s="13">
         <f>Data!AC12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="X4" s="13">
         <f>Data!AD12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="Y4" s="13">
         <f>Data!AE12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="Z4" s="13">
         <f>Data!AF12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AA4" s="13">
         <f>Data!AG12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AB4" s="13">
         <f>Data!AH12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AC4" s="13">
         <f>Data!AI12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AD4" s="13">
         <f>Data!AJ12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AE4" s="13">
         <f>Data!AK12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
       <c r="AF4" s="13">
         <f>Data!AL12</f>
-        <v>0.68515636335090058</v>
+        <v>2.0554690900527017</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
         <f>Data!H13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="C5" s="13">
         <f>Data!I13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="D5" s="13">
         <f>Data!J13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="E5" s="13">
         <f>Data!K13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="F5" s="13">
         <f>Data!L13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="G5" s="13">
         <f>Data!M13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="H5" s="13">
         <f>Data!N13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="I5" s="13">
         <f>Data!O13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="J5" s="13">
         <f>Data!P13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="K5" s="13">
         <f>Data!Q13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="L5" s="13">
         <f>Data!R13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="M5" s="13">
         <f>Data!S13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="N5" s="13">
         <f>Data!T13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="O5" s="13">
         <f>Data!U13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="P5" s="13">
         <f>Data!V13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="Q5" s="13">
         <f>Data!W13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="R5" s="13">
         <f>Data!X13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="S5" s="13">
         <f>Data!Y13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="T5" s="13">
         <f>Data!Z13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="U5" s="13">
         <f>Data!AA13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="V5" s="13">
         <f>Data!AB13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="W5" s="13">
         <f>Data!AC13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="X5" s="13">
         <f>Data!AD13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="Y5" s="13">
         <f>Data!AE13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="Z5" s="13">
         <f>Data!AF13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AA5" s="13">
         <f>Data!AG13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AB5" s="13">
         <f>Data!AH13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AC5" s="13">
         <f>Data!AI13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AD5" s="13">
         <f>Data!AJ13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AE5" s="13">
         <f>Data!AK13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
       <c r="AF5" s="13">
         <f>Data!AL13</f>
-        <v>0.40715624709934345</v>
+        <v>1.2214687412980303</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -23094,7 +23092,7 @@
         <v>3.1669224668199936E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -23223,7 +23221,7 @@
         <v>0.11783424550586601</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -23368,13 +23366,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -23503,7 +23501,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -23632,7 +23630,7 @@
         <v>0.98901751194548926</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -23761,265 +23759,265 @@
         <v>5.4356707810170545E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>Data!H19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="C4" s="13">
         <f>Data!I19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="D4" s="13">
         <f>Data!J19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="E4" s="13">
         <f>Data!K19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="F4" s="13">
         <f>Data!L19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="G4" s="13">
         <f>Data!M19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="H4" s="13">
         <f>Data!N19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="I4" s="13">
         <f>Data!O19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="J4" s="13">
         <f>Data!P19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="K4" s="13">
         <f>Data!Q19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="L4" s="13">
         <f>Data!R19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="M4" s="13">
         <f>Data!S19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="N4" s="13">
         <f>Data!T19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="O4" s="13">
         <f>Data!U19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="P4" s="13">
         <f>Data!V19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="Q4" s="13">
         <f>Data!W19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="R4" s="13">
         <f>Data!X19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="S4" s="13">
         <f>Data!Y19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="T4" s="13">
         <f>Data!Z19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="U4" s="13">
         <f>Data!AA19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="V4" s="13">
         <f>Data!AB19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="W4" s="13">
         <f>Data!AC19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="X4" s="13">
         <f>Data!AD19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="Y4" s="13">
         <f>Data!AE19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="Z4" s="13">
         <f>Data!AF19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AA4" s="13">
         <f>Data!AG19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AB4" s="13">
         <f>Data!AH19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AC4" s="13">
         <f>Data!AI19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AD4" s="13">
         <f>Data!AJ19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AE4" s="13">
         <f>Data!AK19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
       <c r="AF4" s="13">
         <f>Data!AL19</f>
-        <v>4.3780152499952856E-3</v>
+        <v>1.3134045749985857E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
         <f>Data!H20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13">
         <f>Data!I20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="13">
         <f>Data!J20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="13">
         <f>Data!K20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="13">
         <f>Data!L20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="13">
         <f>Data!M20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="13">
         <f>Data!N20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="13">
         <f>Data!O20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="13">
         <f>Data!P20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="13">
         <f>Data!Q20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="13">
         <f>Data!R20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="13">
         <f>Data!S20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="13">
         <f>Data!T20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="13">
         <f>Data!U20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="13">
         <f>Data!V20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="13">
         <f>Data!W20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="13">
         <f>Data!X20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="13">
         <f>Data!Y20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="13">
         <f>Data!Z20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" s="13">
         <f>Data!AA20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="13">
         <f>Data!AB20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" s="13">
         <f>Data!AC20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" s="13">
         <f>Data!AD20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="13">
         <f>Data!AE20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="13">
         <f>Data!AF20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="13">
         <f>Data!AG20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="13">
         <f>Data!AH20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="13">
         <f>Data!AI20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="13">
         <f>Data!AJ20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" s="13">
         <f>Data!AK20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="13">
         <f>Data!AL20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -24148,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -24277,7 +24275,7 @@
         <v>4.243912626775604E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -24420,13 +24418,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -24555,7 +24553,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -24684,7 +24682,7 @@
         <v>0.79127177805208992</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -24813,265 +24811,265 @@
         <v>2.3113990968226827E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>Data!H26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="C4" s="13">
         <f>Data!I26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="D4" s="13">
         <f>Data!J26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="E4" s="13">
         <f>Data!K26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="F4" s="13">
         <f>Data!L26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="G4" s="13">
         <f>Data!M26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="H4" s="13">
         <f>Data!N26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="I4" s="13">
         <f>Data!O26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="J4" s="13">
         <f>Data!P26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="K4" s="13">
         <f>Data!Q26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="L4" s="13">
         <f>Data!R26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="M4" s="13">
         <f>Data!S26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="N4" s="13">
         <f>Data!T26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="O4" s="13">
         <f>Data!U26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="P4" s="13">
         <f>Data!V26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="Q4" s="13">
         <f>Data!W26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="R4" s="13">
         <f>Data!X26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="S4" s="13">
         <f>Data!Y26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="T4" s="13">
         <f>Data!Z26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="U4" s="13">
         <f>Data!AA26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="V4" s="13">
         <f>Data!AB26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="W4" s="13">
         <f>Data!AC26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="X4" s="13">
         <f>Data!AD26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="Y4" s="13">
         <f>Data!AE26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="Z4" s="13">
         <f>Data!AF26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AA4" s="13">
         <f>Data!AG26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AB4" s="13">
         <f>Data!AH26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AC4" s="13">
         <f>Data!AI26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AD4" s="13">
         <f>Data!AJ26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AE4" s="13">
         <f>Data!AK26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
       <c r="AF4" s="13">
         <f>Data!AL26</f>
-        <v>0.68514099650264149</v>
+        <v>2.0554229895079246</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
         <f>Data!H27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="C5" s="13">
         <f>Data!I27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="D5" s="13">
         <f>Data!J27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="E5" s="13">
         <f>Data!K27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="F5" s="13">
         <f>Data!L27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="G5" s="13">
         <f>Data!M27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="H5" s="13">
         <f>Data!N27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="I5" s="13">
         <f>Data!O27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="J5" s="13">
         <f>Data!P27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="K5" s="13">
         <f>Data!Q27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="L5" s="13">
         <f>Data!R27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="M5" s="13">
         <f>Data!S27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="N5" s="13">
         <f>Data!T27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="O5" s="13">
         <f>Data!U27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="P5" s="13">
         <f>Data!V27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="Q5" s="13">
         <f>Data!W27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="R5" s="13">
         <f>Data!X27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="S5" s="13">
         <f>Data!Y27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="T5" s="13">
         <f>Data!Z27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="U5" s="13">
         <f>Data!AA27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="V5" s="13">
         <f>Data!AB27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="W5" s="13">
         <f>Data!AC27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="X5" s="13">
         <f>Data!AD27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="Y5" s="13">
         <f>Data!AE27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="Z5" s="13">
         <f>Data!AF27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AA5" s="13">
         <f>Data!AG27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AB5" s="13">
         <f>Data!AH27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AC5" s="13">
         <f>Data!AI27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AD5" s="13">
         <f>Data!AJ27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AE5" s="13">
         <f>Data!AK27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
       <c r="AF5" s="13">
         <f>Data!AL27</f>
-        <v>0.40714711530315562</v>
+        <v>1.2214413459094668</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -25200,7 +25198,7 @@
         <v>3.1668514383371552E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -25329,7 +25327,7 @@
         <v>0.11783160269165999</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -25472,13 +25470,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -25607,7 +25605,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -25736,7 +25734,7 @@
         <v>0.79121490240953929</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -25865,265 +25863,265 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <f>Data!H33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="C4" s="13">
         <f>Data!I33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="D4" s="13">
         <f>Data!J33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="E4" s="13">
         <f>Data!K33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="F4" s="13">
         <f>Data!L33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="G4" s="13">
         <f>Data!M33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="H4" s="13">
         <f>Data!N33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="I4" s="13">
         <f>Data!O33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="J4" s="13">
         <f>Data!P33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="K4" s="13">
         <f>Data!Q33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="L4" s="13">
         <f>Data!R33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="M4" s="13">
         <f>Data!S33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="N4" s="13">
         <f>Data!T33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="O4" s="13">
         <f>Data!U33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="P4" s="13">
         <f>Data!V33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="Q4" s="13">
         <f>Data!W33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="R4" s="13">
         <f>Data!X33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="S4" s="13">
         <f>Data!Y33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="T4" s="13">
         <f>Data!Z33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="U4" s="13">
         <f>Data!AA33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="V4" s="13">
         <f>Data!AB33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="W4" s="13">
         <f>Data!AC33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="X4" s="13">
         <f>Data!AD33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="Y4" s="13">
         <f>Data!AE33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="Z4" s="13">
         <f>Data!AF33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AA4" s="13">
         <f>Data!AG33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AB4" s="13">
         <f>Data!AH33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AC4" s="13">
         <f>Data!AI33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AD4" s="13">
         <f>Data!AJ33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AE4" s="13">
         <f>Data!AK33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
       <c r="AF4" s="13">
         <f>Data!AL33</f>
-        <v>4.3799198741939537E-3</v>
+        <v>1.3139759622581862E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
         <f>Data!H34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13">
         <f>Data!I34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="13">
         <f>Data!J34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="13">
         <f>Data!K34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="13">
         <f>Data!L34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="13">
         <f>Data!M34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="13">
         <f>Data!N34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="13">
         <f>Data!O34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="13">
         <f>Data!P34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="13">
         <f>Data!Q34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="13">
         <f>Data!R34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="13">
         <f>Data!S34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="13">
         <f>Data!T34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="13">
         <f>Data!U34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="13">
         <f>Data!V34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="13">
         <f>Data!W34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="13">
         <f>Data!X34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="13">
         <f>Data!Y34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="13">
         <f>Data!Z34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" s="13">
         <f>Data!AA34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="13">
         <f>Data!AB34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" s="13">
         <f>Data!AC34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" s="13">
         <f>Data!AD34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="13">
         <f>Data!AE34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="13">
         <f>Data!AF34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="13">
         <f>Data!AG34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="13">
         <f>Data!AH34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="13">
         <f>Data!AI34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="13">
         <f>Data!AJ34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" s="13">
         <f>Data!AK34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="13">
         <f>Data!AL34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -26252,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -26381,7 +26379,7 @@
         <v>4.2457589105878851E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
@@ -26524,13 +26522,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
@@ -26659,7 +26657,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -26788,7 +26786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -26917,7 +26915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -27046,7 +27044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -27175,7 +27173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -27304,7 +27302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -27433,7 +27431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
